--- a/biology/Botanique/Gardenia_imperialis/Gardenia_imperialis.xlsx
+++ b/biology/Botanique/Gardenia_imperialis/Gardenia_imperialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gardenia imperialis est une espèce de plantes à fleurs de la famille des Rubiaceae. Il s'agit d'un arbre de taille petite à moyenne que l'on trouve dans les savanes marécageuses ou les forêts d'Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[1] : Angola, Burkina Faso, Burundi, Bénin, Cameroun, Côte d'Ivoire, Gabon, Gambie, Ghana, Guinée équatoriale, Guinée-Bissau, Guinée, Liberia, Malawi, Mali, Mozambique, Nigeria, Ouganda, République centrafricaine, République du Congo, République démocratique du Congo, Sierra Leone, Sénégal, Tanzanie, Zambie, Zimbabwe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Angola, Burkina Faso, Burundi, Bénin, Cameroun, Côte d'Ivoire, Gabon, Gambie, Ghana, Guinée équatoriale, Guinée-Bissau, Guinée, Liberia, Malawi, Mali, Mozambique, Nigeria, Ouganda, République centrafricaine, République du Congo, République démocratique du Congo, Sierra Leone, Sénégal, Tanzanie, Zambie, Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 avril 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 avril 2022) :
 Gardenia imperialis subsp. imperialis
 Gardenia imperialis subsp. physophylla (K.Schum.) L.Pauwels</t>
         </is>
